--- a/output/google_maps_data_SMP_Bantul.xlsx
+++ b/output/google_maps_data_SMP_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SMP+Bantul/@-7.8053355,110.3375984,13z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 367561</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.874928</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.874928</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.335825</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56229d79b89b:0x2305183bd06a9fc6!8m2!3d-7.874928!4d110.335825!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bwfmm_5b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56229d79b89b:0x2305183bd06a9fc6!8m2!3d-7.874928!4d110.335825!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11bwfmm_5b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -579,25 +572,24 @@
           <t>(0274) 367390</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.905113</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.905113</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.33069</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7aff66a5b6939b:0xdf3e6c41260f3914!8m2!3d-7.9051132!4d110.3306899!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf3fdyd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7aff66a5b6939b:0xdf3e6c41260f3914!8m2!3d-7.9051132!4d110.3306899!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf3fdyd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -620,25 +612,24 @@
           <t>(0274) 379348</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.825745</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.825745</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.327178</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Kasihan/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7af876e5663815:0x55e7aaa7d4fb08f8!8m2!3d-7.8257452!4d110.3271777!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5b9jxp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Kasihan/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7af876e5663815:0x55e7aaa7d4fb08f8!8m2!3d-7.8257452!4d110.3271777!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5b9jxp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -661,25 +652,24 @@
           <t>(0274) 367043</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.88881</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.88881</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.326414</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7aff57173b6e0f:0x27bd06d840febf23!8m2!3d-7.8888097!4d110.3264139!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1v4c9j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7aff57173b6e0f:0x27bd06d840febf23!8m2!3d-7.8888097!4d110.3264139!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1v4c9j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -706,25 +696,24 @@
           <t>(0274) 383733</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>-7.86126</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.86126</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.353593</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Sewon/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56727c33fe57:0x57194caf2880dcf9!8m2!3d-7.86126!4d110.353593!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm6c7x_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Sewon/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56727c33fe57:0x57194caf2880dcf9!8m2!3d-7.86126!4d110.353593!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm6c7x_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -751,25 +740,24 @@
           <t>(0274) 445624</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.847567</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.847567</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.358528</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Sewon/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56489c77f4a3:0xdd06ea4ff0a4dc29!8m2!3d-7.8475673!4d110.3585279!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4gk52c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Sewon/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56489c77f4a3:0xdd06ea4ff0a4dc29!8m2!3d-7.8475673!4d110.3585279!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4gk52c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -796,25 +784,24 @@
           <t>(0274) 413305</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.839877</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.839877</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.312853</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Kasihan/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7af861fe6237a3:0x86e48de43aacc0f6!8m2!3d-7.8398769!4d110.3128526!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6skd7r6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Kasihan/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7af861fe6237a3:0x86e48de43aacc0f6!8m2!3d-7.8398769!4d110.3128526!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6skd7r6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -841,25 +828,24 @@
           <t>(0274) 368423</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.897361</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.897361</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.338378</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Unggulan+Aisyiyah+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a558d18d77397:0xbfe476939b51fe7c!8m2!3d-7.8973609!4d110.3383782!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11cn7mqc6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Unggulan+Aisyiyah+Bantul/@-7.874928,110.2637272,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a558d18d77397:0xbfe476939b51fe7c!8m2!3d-7.8973609!4d110.3383782!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11cn7mqc6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -886,25 +872,24 @@
           <t>0811-2957-270</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.857495</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.857495</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.416696</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Banguntapan/@-7.8574948,110.3445979,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56b7aeab9c2d:0x965bfc716e02a4b9!8m2!3d-7.8574948!4d110.4166957!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1rkc0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Banguntapan/@-7.8574948,110.3445979,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56b7aeab9c2d:0x965bfc716e02a4b9!8m2!3d-7.8574948!4d110.4166957!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm1rkc0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -927,25 +912,24 @@
           <t>(0274) 4415220</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.869088</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.869088</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.390929</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pleret/@-7.8574948,110.3445979,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a569ad0c1474b:0xbbb67af64481d3a5!8m2!3d-7.869088!4d110.3909291!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm608c1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pleret/@-7.8574948,110.3445979,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a569ad0c1474b:0xbbb67af64481d3a5!8m2!3d-7.869088!4d110.3909291!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm608c1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -972,25 +956,24 @@
           <t>(0274) 6465846</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.849805</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.849805</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.322775</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Sewon/@-7.8498048,110.2506768,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a55fed51161df:0x28663f2a4daec546!8m2!3d-7.8498048!4d110.3227746!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzq82xms?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Sewon/@-7.8498048,110.2506768,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a55fed51161df:0x28663f2a4daec546!8m2!3d-7.8498048!4d110.3227746!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1pzq82xms?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1013,25 +996,24 @@
           <t>(0274) 618847</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.800362</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.800362</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.339368</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Kasihan/@-7.8498048,110.2506768,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a57f905a9a969:0x2926616383ac42ce!8m2!3d-7.8003624!4d110.339368!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1vyd3ptq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Kasihan/@-7.8498048,110.2506768,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a57f905a9a969:0x2926616383ac42ce!8m2!3d-7.8003624!4d110.339368!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1vyd3ptq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1054,25 +1036,24 @@
           <t>(0274) 377822</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>-7.829314</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.829314</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.41155</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Banguntapan/@-7.8293138,110.3394526,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56dbfd2f7739:0xcf1f5bc393e09971!8m2!3d-7.8293138!4d110.4115504!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5npwnr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Banguntapan/@-7.8293138,110.3394526,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a56dbfd2f7739:0xcf1f5bc393e09971!8m2!3d-7.8293138!4d110.4115504!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm5npwnr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1099,25 +1080,24 @@
           <t>(0274) 379471</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.813283</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.813283</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.336745</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Mataram+Kasihan/@-7.8132832,110.2646474,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a57e4c1c9a893:0x8a76e55e41c9759b!8m2!3d-7.8132832!4d110.3367452!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_n49mq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Mataram+Kasihan/@-7.8132832,110.2646474,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a57e4c1c9a893:0x8a76e55e41c9759b!8m2!3d-7.8132832!4d110.3367452!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_n49mq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1144,25 +1124,24 @@
           <t>(0274) 367375</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>-7.906581</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.906581</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.314138</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pandak(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A5%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%8F%EA%A7%80)/@-7.9065815,110.2420397,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7aff6949ef8219:0x257a1fa3d746404c!8m2!3d-7.9065815!4d110.3141375!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1tfy4twn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Pandak(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A5%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%8F%EA%A7%80)/@-7.9065815,110.2420397,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7aff6949ef8219:0x257a1fa3d746404c!8m2!3d-7.9065815!4d110.3141375!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1tfy4twn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1185,25 +1164,24 @@
           <t>(0274) 6466008</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.850114</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.850114</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.345188</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Sewon(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%93%EA%A7%87%EA%A6%B1%EA%A6%BA%EA%A6%AE%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80)/@-7.850114,110.2730902,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a563af2313601:0x3f5c4028513daf6c!8m2!3d-7.850114!4d110.345188!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6hx_8wr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Sewon(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%93%EA%A7%87%EA%A6%B1%EA%A6%BA%EA%A6%AE%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80)/@-7.850114,110.2730902,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a563af2313601:0x3f5c4028513daf6c!8m2!3d-7.850114!4d110.345188!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6hx_8wr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1230,25 +1208,24 @@
           <t>(0274) 2810159</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.89108</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.89108</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.375799</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Jetis/@-7.850114,110.2730902,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a55a4bf194531:0x237aae79ad40c560!8m2!3d-7.8910796!4d110.3757994!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_vl9gs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Jetis/@-7.850114,110.2730902,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a55a4bf194531:0x237aae79ad40c560!8m2!3d-7.8910796!4d110.3757994!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hd_vl9gs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1271,25 +1248,24 @@
           <t>0856-7710-219</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.912923</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.912923</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.338328</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Islam+Prestasi+Al+Mubtadi-ien/@-7.9129229,110.2662299,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a5585c8be2db3:0xb9b5391c4d816d8a!8m2!3d-7.9129229!4d110.3383277!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6cq3gp4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Islam+Prestasi+Al+Mubtadi-ien/@-7.9129229,110.2662299,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a5585c8be2db3:0xb9b5391c4d816d8a!8m2!3d-7.9129229!4d110.3383277!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11b6cq3gp4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1312,25 +1288,24 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>-7.808118</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.808118</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.405675</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Banguntapan+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%A7%EA%A6%94%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%A5%EA%A6%A4%EA%A7%80/@-7.808118,110.3335772,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a5743cb30e027:0x5f0e725f405055bf!8m2!3d-7.808118!4d110.405675!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4m7y88?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Banguntapan+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A7%87%EA%A7%92%EA%A7%87%EA%A6%A7%EA%A6%94%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%A5%EA%A6%A4%EA%A7%80/@-7.808118,110.3335772,13z/data=!4m10!1m2!2m1!1sSMP+Bantul!3m6!1s0x2e7a5743cb30e027:0x5f0e725f405055bf!8m2!3d-7.808118!4d110.405675!15sCgpTTVAgQmFudHVskgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4m7y88?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
